--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析表.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析表.xlsx
@@ -2880,11 +2880,11 @@
   <dimension ref="A1:CM551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:C5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2900,8 +2900,11 @@
     <col min="13" max="13" width="40.7767857142857" customWidth="1"/>
     <col min="26" max="26" width="9.85714285714286"/>
     <col min="30" max="31" width="12.7857142857143"/>
-    <col min="33" max="36" width="26.3303571428571" customWidth="1"/>
-    <col min="37" max="37" width="18.1517857142857" customWidth="1"/>
+    <col min="33" max="33" width="26.3303571428571" customWidth="1"/>
+    <col min="34" max="34" width="11.3035714285714" customWidth="1"/>
+    <col min="35" max="35" width="11.5982142857143" customWidth="1"/>
+    <col min="36" max="36" width="13.6964285714286" customWidth="1"/>
+    <col min="37" max="37" width="16.8125" customWidth="1"/>
     <col min="41" max="41" width="11.9017857142857" customWidth="1"/>
     <col min="42" max="42" width="13.5357142857143" customWidth="1"/>
     <col min="43" max="45" width="14.1339285714286" customWidth="1"/>
